--- a/log_history/Y2_B2526_Pharmacology_scanner1758713122276_4def9dec8be0c4e4044281586d4dc15ba43434ebc05630802a41912664f448dd.xlsx
+++ b/log_history/Y2_B2526_Pharmacology_scanner1758713122276_4def9dec8be0c4e4044281586d4dc15ba43434ebc05630802a41912664f448dd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\log_history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F273DCB8-89A2-43A3-934C-0BDECCC1855C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D388B5EB-97F0-46A2-B5F9-4EAD118B8741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1300" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scanner" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="200">
   <si>
     <t>Student ID</t>
   </si>
@@ -49,9 +49,6 @@
     <t>24/09/2025</t>
   </si>
   <si>
-    <t>15:00:02</t>
-  </si>
-  <si>
     <t>Manual</t>
   </si>
   <si>
@@ -61,1132 +58,568 @@
     <t>244571</t>
   </si>
   <si>
-    <t>15:00:22</t>
-  </si>
-  <si>
     <t>244435</t>
   </si>
   <si>
-    <t>15:00:35</t>
-  </si>
-  <si>
     <t>244340</t>
   </si>
   <si>
-    <t>15:00:42</t>
-  </si>
-  <si>
     <t>244532</t>
   </si>
   <si>
-    <t>15:00:49</t>
-  </si>
-  <si>
     <t>244533</t>
   </si>
   <si>
-    <t>15:00:54</t>
-  </si>
-  <si>
     <t>244574</t>
   </si>
   <si>
-    <t>15:00:59</t>
-  </si>
-  <si>
     <t>244529</t>
   </si>
   <si>
-    <t>15:01:09</t>
-  </si>
-  <si>
     <t>244558</t>
   </si>
   <si>
-    <t>15:01:15</t>
-  </si>
-  <si>
     <t>244557</t>
   </si>
   <si>
-    <t>15:01:23</t>
-  </si>
-  <si>
     <t>244634</t>
   </si>
   <si>
-    <t>15:01:32</t>
-  </si>
-  <si>
     <t>244565</t>
   </si>
   <si>
-    <t>15:01:38</t>
-  </si>
-  <si>
     <t>244537</t>
   </si>
   <si>
-    <t>15:02:25</t>
-  </si>
-  <si>
     <t>241467</t>
   </si>
   <si>
-    <t>15:02:53</t>
-  </si>
-  <si>
     <t>244633</t>
   </si>
   <si>
-    <t>15:03:05</t>
-  </si>
-  <si>
     <t>241514</t>
   </si>
   <si>
-    <t>15:03:23</t>
-  </si>
-  <si>
     <t>244560</t>
   </si>
   <si>
-    <t>15:03:37</t>
-  </si>
-  <si>
     <t>241621</t>
   </si>
   <si>
-    <t>15:03:44</t>
-  </si>
-  <si>
     <t>241477</t>
   </si>
   <si>
-    <t>15:03:55</t>
-  </si>
-  <si>
     <t>241563</t>
   </si>
   <si>
-    <t>15:03:59</t>
-  </si>
-  <si>
     <t>241624</t>
   </si>
   <si>
-    <t>15:04:05</t>
-  </si>
-  <si>
     <t>235165</t>
   </si>
   <si>
-    <t>15:04:10</t>
-  </si>
-  <si>
     <t>241519</t>
   </si>
   <si>
-    <t>15:04:15</t>
-  </si>
-  <si>
     <t>241674</t>
   </si>
   <si>
-    <t>15:04:19</t>
-  </si>
-  <si>
     <t>241515</t>
   </si>
   <si>
-    <t>15:04:23</t>
-  </si>
-  <si>
     <t>241639</t>
   </si>
   <si>
-    <t>15:04:32</t>
-  </si>
-  <si>
     <t>234943</t>
   </si>
   <si>
-    <t>15:04:37</t>
-  </si>
-  <si>
     <t>244909</t>
   </si>
   <si>
-    <t>15:04:42</t>
-  </si>
-  <si>
     <t>Scan</t>
   </si>
   <si>
     <t>24/09/2026</t>
   </si>
   <si>
-    <t>15:04:43</t>
-  </si>
-  <si>
     <t>24/09/2027</t>
   </si>
   <si>
-    <t>15:04:44</t>
-  </si>
-  <si>
     <t>24/09/2028</t>
   </si>
   <si>
-    <t>15:04:45</t>
-  </si>
-  <si>
     <t>24/09/2029</t>
   </si>
   <si>
-    <t>15:04:46</t>
-  </si>
-  <si>
     <t>24/09/2030</t>
   </si>
   <si>
-    <t>15:04:47</t>
-  </si>
-  <si>
     <t>24/09/2031</t>
   </si>
   <si>
-    <t>15:04:48</t>
-  </si>
-  <si>
     <t>24/09/2032</t>
   </si>
   <si>
-    <t>15:04:49</t>
-  </si>
-  <si>
     <t>24/09/2033</t>
   </si>
   <si>
-    <t>15:04:50</t>
-  </si>
-  <si>
     <t>24/09/2034</t>
   </si>
   <si>
-    <t>15:04:51</t>
-  </si>
-  <si>
     <t>24/09/2035</t>
   </si>
   <si>
-    <t>15:04:52</t>
-  </si>
-  <si>
     <t>24/09/2036</t>
   </si>
   <si>
-    <t>15:04:53</t>
-  </si>
-  <si>
     <t>24/09/2037</t>
   </si>
   <si>
-    <t>15:04:54</t>
-  </si>
-  <si>
     <t>24/09/2038</t>
   </si>
   <si>
-    <t>15:04:55</t>
-  </si>
-  <si>
     <t>24/09/2039</t>
   </si>
   <si>
-    <t>15:04:56</t>
-  </si>
-  <si>
     <t>24/09/2040</t>
   </si>
   <si>
-    <t>15:04:57</t>
-  </si>
-  <si>
     <t>24/09/2041</t>
   </si>
   <si>
-    <t>15:04:58</t>
-  </si>
-  <si>
     <t>24/09/2042</t>
   </si>
   <si>
-    <t>15:04:59</t>
-  </si>
-  <si>
     <t>24/09/2043</t>
   </si>
   <si>
-    <t>15:04:60</t>
-  </si>
-  <si>
     <t>24/09/2044</t>
   </si>
   <si>
-    <t>15:04:61</t>
-  </si>
-  <si>
     <t>24/09/2045</t>
   </si>
   <si>
-    <t>15:04:62</t>
-  </si>
-  <si>
     <t>24/09/2046</t>
   </si>
   <si>
-    <t>15:04:63</t>
-  </si>
-  <si>
     <t>24/09/2047</t>
   </si>
   <si>
-    <t>15:04:64</t>
-  </si>
-  <si>
     <t>24/09/2048</t>
   </si>
   <si>
-    <t>15:04:65</t>
-  </si>
-  <si>
     <t>24/09/2049</t>
   </si>
   <si>
-    <t>15:04:66</t>
-  </si>
-  <si>
     <t>24/09/2050</t>
   </si>
   <si>
-    <t>15:04:67</t>
-  </si>
-  <si>
     <t>24/09/2051</t>
   </si>
   <si>
-    <t>15:04:68</t>
-  </si>
-  <si>
     <t>24/09/2052</t>
   </si>
   <si>
-    <t>15:04:69</t>
-  </si>
-  <si>
     <t>24/09/2053</t>
   </si>
   <si>
-    <t>15:04:70</t>
-  </si>
-  <si>
     <t>24/09/2054</t>
   </si>
   <si>
-    <t>15:04:71</t>
-  </si>
-  <si>
     <t>24/09/2055</t>
   </si>
   <si>
-    <t>15:04:72</t>
-  </si>
-  <si>
     <t>24/09/2056</t>
   </si>
   <si>
-    <t>15:04:73</t>
-  </si>
-  <si>
     <t>24/09/2057</t>
   </si>
   <si>
-    <t>15:04:74</t>
-  </si>
-  <si>
     <t>24/09/2058</t>
   </si>
   <si>
-    <t>15:04:75</t>
-  </si>
-  <si>
     <t>24/09/2059</t>
   </si>
   <si>
-    <t>15:04:76</t>
-  </si>
-  <si>
     <t>24/09/2060</t>
   </si>
   <si>
-    <t>15:04:77</t>
-  </si>
-  <si>
     <t>24/09/2061</t>
   </si>
   <si>
-    <t>15:04:78</t>
-  </si>
-  <si>
     <t>24/09/2062</t>
   </si>
   <si>
-    <t>15:04:79</t>
-  </si>
-  <si>
     <t>24/09/2063</t>
   </si>
   <si>
-    <t>15:04:80</t>
-  </si>
-  <si>
     <t>24/09/2064</t>
   </si>
   <si>
-    <t>15:04:81</t>
-  </si>
-  <si>
     <t>24/09/2065</t>
   </si>
   <si>
-    <t>15:04:82</t>
-  </si>
-  <si>
     <t>24/09/2066</t>
   </si>
   <si>
-    <t>15:04:83</t>
-  </si>
-  <si>
     <t>24/09/2067</t>
   </si>
   <si>
-    <t>15:04:84</t>
-  </si>
-  <si>
     <t>24/09/2068</t>
   </si>
   <si>
-    <t>15:04:85</t>
-  </si>
-  <si>
     <t>24/09/2069</t>
   </si>
   <si>
-    <t>15:04:86</t>
-  </si>
-  <si>
     <t>24/09/2070</t>
   </si>
   <si>
-    <t>15:04:87</t>
-  </si>
-  <si>
     <t>24/09/2071</t>
   </si>
   <si>
-    <t>15:04:88</t>
-  </si>
-  <si>
     <t>24/09/2072</t>
   </si>
   <si>
-    <t>15:04:89</t>
-  </si>
-  <si>
     <t>24/09/2073</t>
   </si>
   <si>
-    <t>15:04:90</t>
-  </si>
-  <si>
     <t>24/09/2074</t>
   </si>
   <si>
-    <t>15:04:91</t>
-  </si>
-  <si>
     <t>24/09/2075</t>
   </si>
   <si>
-    <t>15:04:92</t>
-  </si>
-  <si>
     <t>24/09/2076</t>
   </si>
   <si>
-    <t>15:04:93</t>
-  </si>
-  <si>
     <t>24/09/2077</t>
   </si>
   <si>
-    <t>15:04:94</t>
-  </si>
-  <si>
     <t>24/09/2078</t>
   </si>
   <si>
-    <t>15:04:95</t>
-  </si>
-  <si>
     <t>24/09/2079</t>
   </si>
   <si>
-    <t>15:04:96</t>
-  </si>
-  <si>
     <t>24/09/2080</t>
   </si>
   <si>
-    <t>15:04:97</t>
-  </si>
-  <si>
     <t>24/09/2081</t>
   </si>
   <si>
-    <t>15:04:98</t>
-  </si>
-  <si>
     <t>24/09/2082</t>
   </si>
   <si>
-    <t>15:04:99</t>
-  </si>
-  <si>
     <t>24/09/2083</t>
   </si>
   <si>
-    <t>15:04:100</t>
-  </si>
-  <si>
     <t>24/09/2084</t>
   </si>
   <si>
-    <t>15:04:101</t>
-  </si>
-  <si>
     <t>24/09/2085</t>
   </si>
   <si>
-    <t>15:04:102</t>
-  </si>
-  <si>
     <t>24/09/2086</t>
   </si>
   <si>
-    <t>15:04:103</t>
-  </si>
-  <si>
     <t>24/09/2087</t>
   </si>
   <si>
-    <t>15:04:104</t>
-  </si>
-  <si>
     <t>24/09/2088</t>
   </si>
   <si>
-    <t>15:04:105</t>
-  </si>
-  <si>
     <t>24/09/2089</t>
   </si>
   <si>
-    <t>15:04:106</t>
-  </si>
-  <si>
     <t>24/09/2090</t>
   </si>
   <si>
-    <t>15:04:107</t>
-  </si>
-  <si>
     <t>24/09/2091</t>
   </si>
   <si>
-    <t>15:04:108</t>
-  </si>
-  <si>
     <t>24/09/2092</t>
   </si>
   <si>
-    <t>15:04:109</t>
-  </si>
-  <si>
     <t>24/09/2093</t>
   </si>
   <si>
-    <t>15:04:110</t>
-  </si>
-  <si>
     <t>24/09/2094</t>
   </si>
   <si>
-    <t>15:04:111</t>
-  </si>
-  <si>
     <t>24/09/2095</t>
   </si>
   <si>
-    <t>15:04:112</t>
-  </si>
-  <si>
     <t>24/09/2096</t>
   </si>
   <si>
-    <t>15:04:113</t>
-  </si>
-  <si>
     <t>24/09/2097</t>
   </si>
   <si>
-    <t>15:04:114</t>
-  </si>
-  <si>
     <t>24/09/2098</t>
   </si>
   <si>
-    <t>15:04:115</t>
-  </si>
-  <si>
     <t>24/09/2099</t>
   </si>
   <si>
-    <t>15:04:116</t>
-  </si>
-  <si>
     <t>24/09/2100</t>
   </si>
   <si>
-    <t>15:04:117</t>
-  </si>
-  <si>
     <t>24/09/2101</t>
   </si>
   <si>
-    <t>15:04:118</t>
-  </si>
-  <si>
     <t>24/09/2102</t>
   </si>
   <si>
-    <t>15:04:119</t>
-  </si>
-  <si>
     <t>24/09/2103</t>
   </si>
   <si>
-    <t>15:04:120</t>
-  </si>
-  <si>
     <t>24/09/2104</t>
   </si>
   <si>
-    <t>15:04:121</t>
-  </si>
-  <si>
     <t>24/09/2105</t>
   </si>
   <si>
-    <t>15:04:122</t>
-  </si>
-  <si>
     <t>24/09/2106</t>
   </si>
   <si>
-    <t>15:04:123</t>
-  </si>
-  <si>
     <t>24/09/2107</t>
   </si>
   <si>
-    <t>15:04:124</t>
-  </si>
-  <si>
     <t>24/09/2108</t>
   </si>
   <si>
-    <t>15:04:125</t>
-  </si>
-  <si>
     <t>24/09/2109</t>
   </si>
   <si>
-    <t>15:04:126</t>
-  </si>
-  <si>
     <t>24/09/2110</t>
   </si>
   <si>
-    <t>15:04:127</t>
-  </si>
-  <si>
     <t>24/09/2111</t>
   </si>
   <si>
-    <t>15:04:128</t>
-  </si>
-  <si>
     <t>24/09/2112</t>
   </si>
   <si>
-    <t>15:04:129</t>
-  </si>
-  <si>
     <t>24/09/2113</t>
   </si>
   <si>
-    <t>15:04:130</t>
-  </si>
-  <si>
     <t>24/09/2114</t>
   </si>
   <si>
-    <t>15:04:131</t>
-  </si>
-  <si>
     <t>24/09/2115</t>
   </si>
   <si>
-    <t>15:04:132</t>
-  </si>
-  <si>
     <t>24/09/2116</t>
   </si>
   <si>
-    <t>15:04:133</t>
-  </si>
-  <si>
     <t>24/09/2117</t>
   </si>
   <si>
-    <t>15:04:134</t>
-  </si>
-  <si>
     <t>24/09/2118</t>
   </si>
   <si>
-    <t>15:04:135</t>
-  </si>
-  <si>
     <t>24/09/2119</t>
   </si>
   <si>
-    <t>15:04:136</t>
-  </si>
-  <si>
     <t>24/09/2120</t>
   </si>
   <si>
-    <t>15:04:137</t>
-  </si>
-  <si>
     <t>24/09/2121</t>
   </si>
   <si>
-    <t>15:04:138</t>
-  </si>
-  <si>
     <t>24/09/2122</t>
   </si>
   <si>
-    <t>15:04:139</t>
-  </si>
-  <si>
     <t>24/09/2123</t>
   </si>
   <si>
-    <t>15:04:140</t>
-  </si>
-  <si>
     <t>24/09/2124</t>
   </si>
   <si>
-    <t>15:04:141</t>
-  </si>
-  <si>
     <t>24/09/2125</t>
   </si>
   <si>
-    <t>15:04:142</t>
-  </si>
-  <si>
     <t>24/09/2126</t>
   </si>
   <si>
-    <t>15:04:143</t>
-  </si>
-  <si>
     <t>24/09/2127</t>
   </si>
   <si>
-    <t>15:04:144</t>
-  </si>
-  <si>
     <t>24/09/2128</t>
   </si>
   <si>
-    <t>15:04:145</t>
-  </si>
-  <si>
     <t>24/09/2129</t>
   </si>
   <si>
-    <t>15:04:146</t>
-  </si>
-  <si>
     <t>24/09/2130</t>
   </si>
   <si>
-    <t>15:04:147</t>
-  </si>
-  <si>
     <t>24/09/2131</t>
   </si>
   <si>
-    <t>15:04:148</t>
-  </si>
-  <si>
     <t>24/09/2132</t>
   </si>
   <si>
-    <t>15:04:149</t>
-  </si>
-  <si>
     <t>24/09/2133</t>
   </si>
   <si>
-    <t>15:04:150</t>
-  </si>
-  <si>
     <t>24/09/2134</t>
   </si>
   <si>
-    <t>15:04:151</t>
-  </si>
-  <si>
     <t>24/09/2135</t>
   </si>
   <si>
-    <t>15:04:152</t>
-  </si>
-  <si>
     <t>24/09/2136</t>
   </si>
   <si>
-    <t>15:04:153</t>
-  </si>
-  <si>
     <t>24/09/2137</t>
   </si>
   <si>
-    <t>15:04:154</t>
-  </si>
-  <si>
     <t>24/09/2138</t>
   </si>
   <si>
-    <t>15:04:155</t>
-  </si>
-  <si>
     <t>24/09/2139</t>
   </si>
   <si>
-    <t>15:04:156</t>
-  </si>
-  <si>
     <t>24/09/2140</t>
   </si>
   <si>
-    <t>15:04:157</t>
-  </si>
-  <si>
     <t>24/09/2141</t>
   </si>
   <si>
-    <t>15:04:158</t>
-  </si>
-  <si>
     <t>24/09/2142</t>
   </si>
   <si>
-    <t>15:04:159</t>
-  </si>
-  <si>
     <t>24/09/2143</t>
   </si>
   <si>
-    <t>15:04:160</t>
-  </si>
-  <si>
     <t>24/09/2144</t>
   </si>
   <si>
-    <t>15:04:161</t>
-  </si>
-  <si>
     <t>24/09/2145</t>
   </si>
   <si>
-    <t>15:04:162</t>
-  </si>
-  <si>
     <t>24/09/2146</t>
   </si>
   <si>
-    <t>15:04:163</t>
-  </si>
-  <si>
     <t>24/09/2147</t>
   </si>
   <si>
-    <t>15:04:164</t>
-  </si>
-  <si>
     <t>24/09/2148</t>
   </si>
   <si>
-    <t>15:04:165</t>
-  </si>
-  <si>
     <t>24/09/2149</t>
   </si>
   <si>
-    <t>15:04:166</t>
-  </si>
-  <si>
     <t>24/09/2150</t>
   </si>
   <si>
-    <t>15:04:167</t>
-  </si>
-  <si>
     <t>24/09/2151</t>
   </si>
   <si>
-    <t>15:04:168</t>
-  </si>
-  <si>
     <t>24/09/2152</t>
   </si>
   <si>
-    <t>15:04:169</t>
-  </si>
-  <si>
     <t>24/09/2153</t>
   </si>
   <si>
-    <t>15:04:170</t>
-  </si>
-  <si>
     <t>24/09/2154</t>
   </si>
   <si>
-    <t>15:04:171</t>
-  </si>
-  <si>
     <t>24/09/2155</t>
   </si>
   <si>
-    <t>15:04:172</t>
-  </si>
-  <si>
     <t>24/09/2156</t>
   </si>
   <si>
-    <t>15:04:173</t>
-  </si>
-  <si>
     <t>24/09/2157</t>
   </si>
   <si>
-    <t>15:04:174</t>
-  </si>
-  <si>
     <t>24/09/2158</t>
   </si>
   <si>
-    <t>15:04:175</t>
-  </si>
-  <si>
     <t>24/09/2159</t>
   </si>
   <si>
-    <t>15:04:176</t>
-  </si>
-  <si>
     <t>24/09/2160</t>
   </si>
   <si>
-    <t>15:04:177</t>
-  </si>
-  <si>
     <t>24/09/2161</t>
   </si>
   <si>
-    <t>15:04:178</t>
-  </si>
-  <si>
     <t>24/09/2162</t>
   </si>
   <si>
-    <t>15:04:179</t>
-  </si>
-  <si>
     <t>24/09/2163</t>
   </si>
   <si>
-    <t>15:04:180</t>
-  </si>
-  <si>
     <t>24/09/2164</t>
   </si>
   <si>
-    <t>15:04:181</t>
-  </si>
-  <si>
     <t>24/09/2165</t>
   </si>
   <si>
-    <t>15:04:182</t>
-  </si>
-  <si>
     <t>24/09/2166</t>
   </si>
   <si>
-    <t>15:04:183</t>
-  </si>
-  <si>
     <t>24/09/2167</t>
   </si>
   <si>
-    <t>15:04:184</t>
-  </si>
-  <si>
     <t>24/09/2168</t>
   </si>
   <si>
-    <t>15:04:185</t>
-  </si>
-  <si>
     <t>24/09/2169</t>
   </si>
   <si>
-    <t>15:04:186</t>
-  </si>
-  <si>
     <t>24/09/2170</t>
   </si>
   <si>
-    <t>15:04:187</t>
-  </si>
-  <si>
     <t>24/09/2171</t>
   </si>
   <si>
-    <t>15:04:188</t>
-  </si>
-  <si>
     <t>24/09/2172</t>
   </si>
   <si>
-    <t>15:04:189</t>
-  </si>
-  <si>
     <t>24/09/2173</t>
   </si>
   <si>
-    <t>15:04:190</t>
-  </si>
-  <si>
     <t>24/09/2174</t>
   </si>
   <si>
-    <t>15:04:191</t>
-  </si>
-  <si>
     <t>24/09/2175</t>
   </si>
   <si>
-    <t>15:04:192</t>
-  </si>
-  <si>
     <t>24/09/2176</t>
   </si>
   <si>
-    <t>15:04:193</t>
-  </si>
-  <si>
     <t>24/09/2177</t>
   </si>
   <si>
-    <t>15:04:194</t>
-  </si>
-  <si>
     <t>24/09/2178</t>
   </si>
   <si>
-    <t>15:04:195</t>
-  </si>
-  <si>
     <t>24/09/2179</t>
   </si>
   <si>
-    <t>15:04:196</t>
-  </si>
-  <si>
     <t>24/09/2180</t>
   </si>
   <si>
-    <t>15:04:197</t>
-  </si>
-  <si>
     <t>24/09/2181</t>
   </si>
   <si>
-    <t>15:04:198</t>
-  </si>
-  <si>
     <t>24/09/2182</t>
   </si>
   <si>
-    <t>15:04:199</t>
-  </si>
-  <si>
     <t>24/09/2183</t>
   </si>
   <si>
-    <t>15:04:200</t>
-  </si>
-  <si>
     <t>24/09/2184</t>
   </si>
   <si>
-    <t>15:04:201</t>
-  </si>
-  <si>
     <t>24/09/2185</t>
   </si>
   <si>
-    <t>15:04:202</t>
-  </si>
-  <si>
     <t>24/09/2186</t>
-  </si>
-  <si>
-    <t>15:04:203</t>
   </si>
 </sst>
 </file>
@@ -1228,8 +661,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1571,16 +1005,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="38.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +1034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1610,19 +1044,19 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1630,19 +1064,19 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
+      <c r="D3" s="1">
+        <v>0.625</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1650,19 +1084,19 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
+      <c r="D4" s="1">
+        <v>0.625</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1670,19 +1104,19 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
+      <c r="D5" s="1">
+        <v>0.625</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1690,19 +1124,19 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
+      <c r="D6" s="1">
+        <v>0.625</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1710,19 +1144,19 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
+      <c r="D7" s="1">
+        <v>0.625</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -1730,19 +1164,19 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
+      <c r="D8" s="1">
+        <v>0.625</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1750,19 +1184,19 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
+      <c r="D9" s="1">
+        <v>0.625</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -1770,19 +1204,19 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
+      <c r="D10" s="1">
+        <v>0.625</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1790,19 +1224,19 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
-        <v>29</v>
+      <c r="D11" s="1">
+        <v>0.625</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1810,19 +1244,19 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
-        <v>31</v>
+      <c r="D12" s="1">
+        <v>0.625</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -1830,19 +1264,19 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
-        <v>33</v>
+      <c r="D13" s="1">
+        <v>0.625</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -1850,19 +1284,19 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
-        <v>35</v>
+      <c r="D14" s="1">
+        <v>0.625</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1870,19 +1304,19 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
-        <v>37</v>
+      <c r="D15" s="1">
+        <v>0.625</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -1890,19 +1324,19 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" t="s">
-        <v>39</v>
+      <c r="D16" s="1">
+        <v>0.625</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1910,19 +1344,19 @@
       <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
-        <v>41</v>
+      <c r="D17" s="1">
+        <v>0.625</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1930,19 +1364,19 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" t="s">
-        <v>43</v>
+      <c r="D18" s="1">
+        <v>0.625</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1950,19 +1384,19 @@
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" t="s">
-        <v>45</v>
+      <c r="D19" s="1">
+        <v>0.625</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1970,19 +1404,19 @@
       <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
-        <v>47</v>
+      <c r="D20" s="1">
+        <v>0.625</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1990,19 +1424,19 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D21" t="s">
-        <v>49</v>
+      <c r="D21" s="1">
+        <v>0.625</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -2010,19 +1444,19 @@
       <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" t="s">
-        <v>51</v>
+      <c r="D22" s="1">
+        <v>0.625</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -2030,19 +1464,19 @@
       <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" t="s">
-        <v>53</v>
+      <c r="D23" s="1">
+        <v>0.625</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -2050,19 +1484,19 @@
       <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D24" t="s">
-        <v>55</v>
+      <c r="D24" s="1">
+        <v>0.625</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -2070,19 +1504,19 @@
       <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="D25" t="s">
-        <v>57</v>
+      <c r="D25" s="1">
+        <v>0.625</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -2090,19 +1524,19 @@
       <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" t="s">
-        <v>59</v>
+      <c r="D26" s="1">
+        <v>0.625</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -2110,19 +1544,19 @@
       <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" t="s">
-        <v>61</v>
+      <c r="D27" s="1">
+        <v>0.625</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -2130,19 +1564,19 @@
       <c r="C28" t="s">
         <v>8</v>
       </c>
-      <c r="D28" t="s">
-        <v>63</v>
+      <c r="D28" s="1">
+        <v>0.625</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -2150,14 +1584,14 @@
       <c r="C29" t="s">
         <v>8</v>
       </c>
-      <c r="D29" t="s">
-        <v>65</v>
+      <c r="D29" s="1">
+        <v>0.625</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -2168,16 +1602,16 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" t="s">
-        <v>68</v>
+        <v>39</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.625</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -2188,16 +1622,16 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" t="s">
-        <v>70</v>
+        <v>40</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.625</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -2208,16 +1642,16 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" t="s">
-        <v>72</v>
+        <v>41</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.625</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -2228,16 +1662,16 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" t="s">
-        <v>74</v>
+        <v>42</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.625</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -2248,16 +1682,16 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" t="s">
-        <v>76</v>
+        <v>43</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.625</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -2268,16 +1702,16 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" t="s">
-        <v>78</v>
+        <v>44</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.625</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -2288,16 +1722,16 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" t="s">
-        <v>80</v>
+        <v>45</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.625</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -2308,16 +1742,16 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" t="s">
-        <v>82</v>
+        <v>46</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.625</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -2328,16 +1762,16 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" t="s">
-        <v>84</v>
+        <v>47</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.625</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -2348,16 +1782,16 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" t="s">
-        <v>86</v>
+        <v>48</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.625</v>
       </c>
       <c r="E39" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -2368,16 +1802,16 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" t="s">
-        <v>88</v>
+        <v>49</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.625</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -2388,16 +1822,16 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" t="s">
-        <v>90</v>
+        <v>50</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.625</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -2408,16 +1842,16 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" t="s">
-        <v>92</v>
+        <v>51</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.625</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -2428,16 +1862,16 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" t="s">
-        <v>94</v>
+        <v>52</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.625</v>
       </c>
       <c r="E43" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -2448,16 +1882,16 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" t="s">
-        <v>96</v>
+        <v>53</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.625</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -2468,16 +1902,16 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" t="s">
-        <v>98</v>
+        <v>54</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.625</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -2488,16 +1922,16 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" t="s">
-        <v>100</v>
+        <v>55</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.625</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -2508,16 +1942,16 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" t="s">
-        <v>102</v>
+        <v>56</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.625</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -2528,16 +1962,16 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" t="s">
-        <v>104</v>
+        <v>57</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.625</v>
       </c>
       <c r="E48" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -2548,16 +1982,16 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" t="s">
-        <v>106</v>
+        <v>58</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.625</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -2568,16 +2002,16 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" t="s">
-        <v>108</v>
+        <v>59</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.625</v>
       </c>
       <c r="E50" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -2588,16 +2022,16 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" t="s">
-        <v>110</v>
+        <v>60</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.625</v>
       </c>
       <c r="E51" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -2608,16 +2042,16 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" t="s">
-        <v>112</v>
+        <v>61</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.625</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -2628,16 +2062,16 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" t="s">
-        <v>114</v>
+        <v>62</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.625</v>
       </c>
       <c r="E53" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -2648,16 +2082,16 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
-      </c>
-      <c r="D54" t="s">
-        <v>116</v>
+        <v>63</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.625</v>
       </c>
       <c r="E54" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -2668,16 +2102,16 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" t="s">
-        <v>118</v>
+        <v>64</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.625</v>
       </c>
       <c r="E55" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -2688,16 +2122,16 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
-      </c>
-      <c r="D56" t="s">
-        <v>120</v>
+        <v>65</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.625</v>
       </c>
       <c r="E56" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -2708,16 +2142,16 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" t="s">
-        <v>122</v>
+        <v>66</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.625</v>
       </c>
       <c r="E57" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -2728,16 +2162,16 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
-      </c>
-      <c r="D58" t="s">
-        <v>124</v>
+        <v>67</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.625</v>
       </c>
       <c r="E58" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -2748,16 +2182,16 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>125</v>
-      </c>
-      <c r="D59" t="s">
-        <v>126</v>
+        <v>68</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.625</v>
       </c>
       <c r="E59" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -2768,16 +2202,16 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>127</v>
-      </c>
-      <c r="D60" t="s">
-        <v>128</v>
+        <v>69</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.625</v>
       </c>
       <c r="E60" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -2788,16 +2222,16 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>129</v>
-      </c>
-      <c r="D61" t="s">
-        <v>130</v>
+        <v>70</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.625</v>
       </c>
       <c r="E61" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -2808,16 +2242,16 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" t="s">
-        <v>132</v>
+        <v>71</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.625</v>
       </c>
       <c r="E62" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -2828,16 +2262,16 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63" t="s">
-        <v>134</v>
+        <v>72</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.625</v>
       </c>
       <c r="E63" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -2848,16 +2282,16 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" t="s">
-        <v>136</v>
+        <v>73</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.625</v>
       </c>
       <c r="E64" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -2868,16 +2302,16 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
-      </c>
-      <c r="D65" t="s">
-        <v>138</v>
+        <v>74</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.625</v>
       </c>
       <c r="E65" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -2888,16 +2322,16 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>139</v>
-      </c>
-      <c r="D66" t="s">
-        <v>140</v>
+        <v>75</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.625</v>
       </c>
       <c r="E66" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -2908,16 +2342,16 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>141</v>
-      </c>
-      <c r="D67" t="s">
-        <v>142</v>
+        <v>76</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.625</v>
       </c>
       <c r="E67" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -2928,16 +2362,16 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
-      </c>
-      <c r="D68" t="s">
-        <v>144</v>
+        <v>77</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.625</v>
       </c>
       <c r="E68" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -2948,16 +2382,16 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
-      </c>
-      <c r="D69" t="s">
-        <v>146</v>
+        <v>78</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.625</v>
       </c>
       <c r="E69" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -2968,16 +2402,16 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>147</v>
-      </c>
-      <c r="D70" t="s">
-        <v>148</v>
+        <v>79</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.625</v>
       </c>
       <c r="E70" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -2988,16 +2422,16 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
-      </c>
-      <c r="D71" t="s">
-        <v>150</v>
+        <v>80</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.625</v>
       </c>
       <c r="E71" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -3008,16 +2442,16 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
-      </c>
-      <c r="D72" t="s">
-        <v>152</v>
+        <v>81</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.625</v>
       </c>
       <c r="E72" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -3028,16 +2462,16 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>153</v>
-      </c>
-      <c r="D73" t="s">
-        <v>154</v>
+        <v>82</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.625</v>
       </c>
       <c r="E73" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -3048,16 +2482,16 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>155</v>
-      </c>
-      <c r="D74" t="s">
-        <v>156</v>
+        <v>83</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.625</v>
       </c>
       <c r="E74" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -3068,16 +2502,16 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
-      </c>
-      <c r="D75" t="s">
-        <v>158</v>
+        <v>84</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.625</v>
       </c>
       <c r="E75" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -3088,16 +2522,16 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
-      </c>
-      <c r="D76" t="s">
-        <v>160</v>
+        <v>85</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.625</v>
       </c>
       <c r="E76" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
@@ -3108,16 +2542,16 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>161</v>
-      </c>
-      <c r="D77" t="s">
-        <v>162</v>
+        <v>86</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.625</v>
       </c>
       <c r="E77" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -3128,16 +2562,16 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
-      </c>
-      <c r="D78" t="s">
-        <v>164</v>
+        <v>87</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.625</v>
       </c>
       <c r="E78" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -3148,16 +2582,16 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>165</v>
-      </c>
-      <c r="D79" t="s">
-        <v>166</v>
+        <v>88</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.625</v>
       </c>
       <c r="E79" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -3168,16 +2602,16 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>167</v>
-      </c>
-      <c r="D80" t="s">
-        <v>168</v>
+        <v>89</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.625</v>
       </c>
       <c r="E80" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -3188,16 +2622,16 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>169</v>
-      </c>
-      <c r="D81" t="s">
-        <v>170</v>
+        <v>90</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.625</v>
       </c>
       <c r="E81" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -3208,16 +2642,16 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>171</v>
-      </c>
-      <c r="D82" t="s">
-        <v>172</v>
+        <v>91</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.625</v>
       </c>
       <c r="E82" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -3228,16 +2662,16 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>173</v>
-      </c>
-      <c r="D83" t="s">
-        <v>174</v>
+        <v>92</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.625</v>
       </c>
       <c r="E83" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -3248,16 +2682,16 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
-      </c>
-      <c r="D84" t="s">
-        <v>176</v>
+        <v>93</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.625</v>
       </c>
       <c r="E84" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -3268,16 +2702,16 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
-      </c>
-      <c r="D85" t="s">
-        <v>178</v>
+        <v>94</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.625</v>
       </c>
       <c r="E85" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -3288,16 +2722,16 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>179</v>
-      </c>
-      <c r="D86" t="s">
-        <v>180</v>
+        <v>95</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.625</v>
       </c>
       <c r="E86" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -3308,16 +2742,16 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>181</v>
-      </c>
-      <c r="D87" t="s">
-        <v>182</v>
+        <v>96</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.625</v>
       </c>
       <c r="E87" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -3328,16 +2762,16 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>183</v>
-      </c>
-      <c r="D88" t="s">
-        <v>184</v>
+        <v>97</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.625</v>
       </c>
       <c r="E88" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -3348,16 +2782,16 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>185</v>
-      </c>
-      <c r="D89" t="s">
-        <v>186</v>
+        <v>98</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.625</v>
       </c>
       <c r="E89" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -3368,16 +2802,16 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>187</v>
-      </c>
-      <c r="D90" t="s">
-        <v>188</v>
+        <v>99</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.625</v>
       </c>
       <c r="E90" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -3388,16 +2822,16 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>189</v>
-      </c>
-      <c r="D91" t="s">
-        <v>190</v>
+        <v>100</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.625</v>
       </c>
       <c r="E91" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -3408,16 +2842,16 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>191</v>
-      </c>
-      <c r="D92" t="s">
-        <v>192</v>
+        <v>101</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.625</v>
       </c>
       <c r="E92" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -3428,16 +2862,16 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>193</v>
-      </c>
-      <c r="D93" t="s">
-        <v>194</v>
+        <v>102</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.625</v>
       </c>
       <c r="E93" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -3448,16 +2882,16 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>195</v>
-      </c>
-      <c r="D94" t="s">
-        <v>196</v>
+        <v>103</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.625</v>
       </c>
       <c r="E94" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -3468,16 +2902,16 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>197</v>
-      </c>
-      <c r="D95" t="s">
-        <v>198</v>
+        <v>104</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.625</v>
       </c>
       <c r="E95" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -3488,16 +2922,16 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>199</v>
-      </c>
-      <c r="D96" t="s">
-        <v>200</v>
+        <v>105</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.625</v>
       </c>
       <c r="E96" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -3508,16 +2942,16 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>201</v>
-      </c>
-      <c r="D97" t="s">
-        <v>202</v>
+        <v>106</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.625</v>
       </c>
       <c r="E97" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
@@ -3528,16 +2962,16 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>203</v>
-      </c>
-      <c r="D98" t="s">
-        <v>204</v>
+        <v>107</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.625</v>
       </c>
       <c r="E98" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -3548,16 +2982,16 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>205</v>
-      </c>
-      <c r="D99" t="s">
-        <v>206</v>
+        <v>108</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.625</v>
       </c>
       <c r="E99" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
@@ -3568,16 +3002,16 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>207</v>
-      </c>
-      <c r="D100" t="s">
-        <v>208</v>
+        <v>109</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.625</v>
       </c>
       <c r="E100" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -3588,16 +3022,16 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>209</v>
-      </c>
-      <c r="D101" t="s">
-        <v>210</v>
+        <v>110</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.625</v>
       </c>
       <c r="E101" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
@@ -3608,16 +3042,16 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>211</v>
-      </c>
-      <c r="D102" t="s">
-        <v>212</v>
+        <v>111</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.625</v>
       </c>
       <c r="E102" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -3628,16 +3062,16 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>213</v>
-      </c>
-      <c r="D103" t="s">
-        <v>214</v>
+        <v>112</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.625</v>
       </c>
       <c r="E103" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
@@ -3648,16 +3082,16 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>215</v>
-      </c>
-      <c r="D104" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0.625</v>
       </c>
       <c r="E104" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -3668,16 +3102,16 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>217</v>
-      </c>
-      <c r="D105" t="s">
-        <v>218</v>
+        <v>114</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.625</v>
       </c>
       <c r="E105" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
@@ -3688,16 +3122,16 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>219</v>
-      </c>
-      <c r="D106" t="s">
-        <v>220</v>
+        <v>115</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.625</v>
       </c>
       <c r="E106" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -3708,16 +3142,16 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>221</v>
-      </c>
-      <c r="D107" t="s">
-        <v>222</v>
+        <v>116</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0.625</v>
       </c>
       <c r="E107" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
@@ -3728,16 +3162,16 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>223</v>
-      </c>
-      <c r="D108" t="s">
-        <v>224</v>
+        <v>117</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.625</v>
       </c>
       <c r="E108" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -3748,16 +3182,16 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>225</v>
-      </c>
-      <c r="D109" t="s">
-        <v>226</v>
+        <v>118</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0.625</v>
       </c>
       <c r="E109" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
@@ -3768,16 +3202,16 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>227</v>
-      </c>
-      <c r="D110" t="s">
-        <v>228</v>
+        <v>119</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0.625</v>
       </c>
       <c r="E110" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -3788,16 +3222,16 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>229</v>
-      </c>
-      <c r="D111" t="s">
-        <v>230</v>
+        <v>120</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0.625</v>
       </c>
       <c r="E111" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
@@ -3808,16 +3242,16 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>231</v>
-      </c>
-      <c r="D112" t="s">
-        <v>232</v>
+        <v>121</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0.625</v>
       </c>
       <c r="E112" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
@@ -3828,16 +3262,16 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>233</v>
-      </c>
-      <c r="D113" t="s">
-        <v>234</v>
+        <v>122</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0.625</v>
       </c>
       <c r="E113" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
@@ -3848,16 +3282,16 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>235</v>
-      </c>
-      <c r="D114" t="s">
-        <v>236</v>
+        <v>123</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0.625</v>
       </c>
       <c r="E114" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -3868,16 +3302,16 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>237</v>
-      </c>
-      <c r="D115" t="s">
-        <v>238</v>
+        <v>124</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0.625</v>
       </c>
       <c r="E115" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
@@ -3888,16 +3322,16 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>239</v>
-      </c>
-      <c r="D116" t="s">
-        <v>240</v>
+        <v>125</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0.625</v>
       </c>
       <c r="E116" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
@@ -3908,16 +3342,16 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>241</v>
-      </c>
-      <c r="D117" t="s">
-        <v>242</v>
+        <v>126</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0.625</v>
       </c>
       <c r="E117" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
@@ -3928,16 +3362,16 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>243</v>
-      </c>
-      <c r="D118" t="s">
-        <v>244</v>
+        <v>127</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0.625</v>
       </c>
       <c r="E118" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
@@ -3948,16 +3382,16 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>245</v>
-      </c>
-      <c r="D119" t="s">
-        <v>246</v>
+        <v>128</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0.625</v>
       </c>
       <c r="E119" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
@@ -3968,16 +3402,16 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>247</v>
-      </c>
-      <c r="D120" t="s">
-        <v>248</v>
+        <v>129</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0.625</v>
       </c>
       <c r="E120" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
@@ -3988,16 +3422,16 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>249</v>
-      </c>
-      <c r="D121" t="s">
-        <v>250</v>
+        <v>130</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0.625</v>
       </c>
       <c r="E121" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
@@ -4008,16 +3442,16 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>251</v>
-      </c>
-      <c r="D122" t="s">
-        <v>252</v>
+        <v>131</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0.625</v>
       </c>
       <c r="E122" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
@@ -4028,16 +3462,16 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>253</v>
-      </c>
-      <c r="D123" t="s">
-        <v>254</v>
+        <v>132</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0.625</v>
       </c>
       <c r="E123" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
@@ -4048,16 +3482,16 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>255</v>
-      </c>
-      <c r="D124" t="s">
-        <v>256</v>
+        <v>133</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0.625</v>
       </c>
       <c r="E124" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
@@ -4068,16 +3502,16 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>257</v>
-      </c>
-      <c r="D125" t="s">
-        <v>258</v>
+        <v>134</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0.625</v>
       </c>
       <c r="E125" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
@@ -4088,16 +3522,16 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>259</v>
-      </c>
-      <c r="D126" t="s">
-        <v>260</v>
+        <v>135</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0.625</v>
       </c>
       <c r="E126" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
@@ -4108,16 +3542,16 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>261</v>
-      </c>
-      <c r="D127" t="s">
-        <v>262</v>
+        <v>136</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0.625</v>
       </c>
       <c r="E127" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
@@ -4128,16 +3562,16 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>263</v>
-      </c>
-      <c r="D128" t="s">
-        <v>264</v>
+        <v>137</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0.625</v>
       </c>
       <c r="E128" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
@@ -4148,16 +3582,16 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>265</v>
-      </c>
-      <c r="D129" t="s">
-        <v>266</v>
+        <v>138</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0.625</v>
       </c>
       <c r="E129" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
@@ -4168,16 +3602,16 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>267</v>
-      </c>
-      <c r="D130" t="s">
-        <v>268</v>
+        <v>139</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0.625</v>
       </c>
       <c r="E130" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
@@ -4188,16 +3622,16 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>269</v>
-      </c>
-      <c r="D131" t="s">
-        <v>270</v>
+        <v>140</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0.625</v>
       </c>
       <c r="E131" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
@@ -4208,16 +3642,16 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>271</v>
-      </c>
-      <c r="D132" t="s">
-        <v>272</v>
+        <v>141</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0.625</v>
       </c>
       <c r="E132" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
@@ -4228,16 +3662,16 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>273</v>
-      </c>
-      <c r="D133" t="s">
-        <v>274</v>
+        <v>142</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0.625</v>
       </c>
       <c r="E133" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
@@ -4248,16 +3682,16 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>275</v>
-      </c>
-      <c r="D134" t="s">
-        <v>276</v>
+        <v>143</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0.625</v>
       </c>
       <c r="E134" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
@@ -4268,16 +3702,16 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>277</v>
-      </c>
-      <c r="D135" t="s">
-        <v>278</v>
+        <v>144</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0.625</v>
       </c>
       <c r="E135" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
@@ -4288,16 +3722,16 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>279</v>
-      </c>
-      <c r="D136" t="s">
-        <v>280</v>
+        <v>145</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0.625</v>
       </c>
       <c r="E136" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
@@ -4308,16 +3742,16 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>281</v>
-      </c>
-      <c r="D137" t="s">
-        <v>282</v>
+        <v>146</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0.625</v>
       </c>
       <c r="E137" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
@@ -4328,16 +3762,16 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>283</v>
-      </c>
-      <c r="D138" t="s">
-        <v>284</v>
+        <v>147</v>
+      </c>
+      <c r="D138" s="1">
+        <v>0.625</v>
       </c>
       <c r="E138" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
@@ -4348,16 +3782,16 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>285</v>
-      </c>
-      <c r="D139" t="s">
-        <v>286</v>
+        <v>148</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0.625</v>
       </c>
       <c r="E139" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
@@ -4368,16 +3802,16 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>287</v>
-      </c>
-      <c r="D140" t="s">
-        <v>288</v>
+        <v>149</v>
+      </c>
+      <c r="D140" s="1">
+        <v>0.625</v>
       </c>
       <c r="E140" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
@@ -4388,16 +3822,16 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>289</v>
-      </c>
-      <c r="D141" t="s">
-        <v>290</v>
+        <v>150</v>
+      </c>
+      <c r="D141" s="1">
+        <v>0.625</v>
       </c>
       <c r="E141" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
@@ -4408,16 +3842,16 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>291</v>
-      </c>
-      <c r="D142" t="s">
-        <v>292</v>
+        <v>151</v>
+      </c>
+      <c r="D142" s="1">
+        <v>0.625</v>
       </c>
       <c r="E142" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
@@ -4428,16 +3862,16 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>293</v>
-      </c>
-      <c r="D143" t="s">
-        <v>294</v>
+        <v>152</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0.625</v>
       </c>
       <c r="E143" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
@@ -4448,16 +3882,16 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>295</v>
-      </c>
-      <c r="D144" t="s">
-        <v>296</v>
+        <v>153</v>
+      </c>
+      <c r="D144" s="1">
+        <v>0.625</v>
       </c>
       <c r="E144" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
@@ -4468,16 +3902,16 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>297</v>
-      </c>
-      <c r="D145" t="s">
-        <v>298</v>
+        <v>154</v>
+      </c>
+      <c r="D145" s="1">
+        <v>0.625</v>
       </c>
       <c r="E145" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
@@ -4488,16 +3922,16 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>299</v>
-      </c>
-      <c r="D146" t="s">
-        <v>300</v>
+        <v>155</v>
+      </c>
+      <c r="D146" s="1">
+        <v>0.625</v>
       </c>
       <c r="E146" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
@@ -4508,16 +3942,16 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>301</v>
-      </c>
-      <c r="D147" t="s">
-        <v>302</v>
+        <v>156</v>
+      </c>
+      <c r="D147" s="1">
+        <v>0.625</v>
       </c>
       <c r="E147" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
@@ -4528,16 +3962,16 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>303</v>
-      </c>
-      <c r="D148" t="s">
-        <v>304</v>
+        <v>157</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0.625</v>
       </c>
       <c r="E148" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
@@ -4548,16 +3982,16 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>305</v>
-      </c>
-      <c r="D149" t="s">
-        <v>306</v>
+        <v>158</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0.625</v>
       </c>
       <c r="E149" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
@@ -4568,16 +4002,16 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>307</v>
-      </c>
-      <c r="D150" t="s">
-        <v>308</v>
+        <v>159</v>
+      </c>
+      <c r="D150" s="1">
+        <v>0.625</v>
       </c>
       <c r="E150" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
@@ -4588,16 +4022,16 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>309</v>
-      </c>
-      <c r="D151" t="s">
-        <v>310</v>
+        <v>160</v>
+      </c>
+      <c r="D151" s="1">
+        <v>0.625</v>
       </c>
       <c r="E151" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
@@ -4608,16 +4042,16 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>311</v>
-      </c>
-      <c r="D152" t="s">
-        <v>312</v>
+        <v>161</v>
+      </c>
+      <c r="D152" s="1">
+        <v>0.625</v>
       </c>
       <c r="E152" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
@@ -4628,16 +4062,16 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>313</v>
-      </c>
-      <c r="D153" t="s">
-        <v>314</v>
+        <v>162</v>
+      </c>
+      <c r="D153" s="1">
+        <v>0.625</v>
       </c>
       <c r="E153" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
@@ -4648,16 +4082,16 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>315</v>
-      </c>
-      <c r="D154" t="s">
-        <v>316</v>
+        <v>163</v>
+      </c>
+      <c r="D154" s="1">
+        <v>0.625</v>
       </c>
       <c r="E154" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
@@ -4668,16 +4102,16 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>317</v>
-      </c>
-      <c r="D155" t="s">
-        <v>318</v>
+        <v>164</v>
+      </c>
+      <c r="D155" s="1">
+        <v>0.625</v>
       </c>
       <c r="E155" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
@@ -4688,16 +4122,16 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>319</v>
-      </c>
-      <c r="D156" t="s">
-        <v>320</v>
+        <v>165</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0.625</v>
       </c>
       <c r="E156" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
@@ -4708,16 +4142,16 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>321</v>
-      </c>
-      <c r="D157" t="s">
-        <v>322</v>
+        <v>166</v>
+      </c>
+      <c r="D157" s="1">
+        <v>0.625</v>
       </c>
       <c r="E157" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
@@ -4728,16 +4162,16 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>323</v>
-      </c>
-      <c r="D158" t="s">
-        <v>324</v>
+        <v>167</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0.625</v>
       </c>
       <c r="E158" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
@@ -4748,16 +4182,16 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>325</v>
-      </c>
-      <c r="D159" t="s">
-        <v>326</v>
+        <v>168</v>
+      </c>
+      <c r="D159" s="1">
+        <v>0.625</v>
       </c>
       <c r="E159" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
@@ -4768,16 +4202,16 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>327</v>
-      </c>
-      <c r="D160" t="s">
-        <v>328</v>
+        <v>169</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0.625</v>
       </c>
       <c r="E160" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
@@ -4788,16 +4222,16 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>329</v>
-      </c>
-      <c r="D161" t="s">
-        <v>330</v>
+        <v>170</v>
+      </c>
+      <c r="D161" s="1">
+        <v>0.625</v>
       </c>
       <c r="E161" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
@@ -4808,16 +4242,16 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>331</v>
-      </c>
-      <c r="D162" t="s">
-        <v>332</v>
+        <v>171</v>
+      </c>
+      <c r="D162" s="1">
+        <v>0.625</v>
       </c>
       <c r="E162" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -4828,16 +4262,16 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>333</v>
-      </c>
-      <c r="D163" t="s">
-        <v>334</v>
+        <v>172</v>
+      </c>
+      <c r="D163" s="1">
+        <v>0.625</v>
       </c>
       <c r="E163" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
@@ -4848,16 +4282,16 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>335</v>
-      </c>
-      <c r="D164" t="s">
-        <v>336</v>
+        <v>173</v>
+      </c>
+      <c r="D164" s="1">
+        <v>0.625</v>
       </c>
       <c r="E164" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
@@ -4868,16 +4302,16 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>337</v>
-      </c>
-      <c r="D165" t="s">
-        <v>338</v>
+        <v>174</v>
+      </c>
+      <c r="D165" s="1">
+        <v>0.625</v>
       </c>
       <c r="E165" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
@@ -4888,16 +4322,16 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>339</v>
-      </c>
-      <c r="D166" t="s">
-        <v>340</v>
+        <v>175</v>
+      </c>
+      <c r="D166" s="1">
+        <v>0.625</v>
       </c>
       <c r="E166" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
@@ -4908,16 +4342,16 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>341</v>
-      </c>
-      <c r="D167" t="s">
-        <v>342</v>
+        <v>176</v>
+      </c>
+      <c r="D167" s="1">
+        <v>0.625</v>
       </c>
       <c r="E167" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
@@ -4928,16 +4362,16 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>343</v>
-      </c>
-      <c r="D168" t="s">
-        <v>344</v>
+        <v>177</v>
+      </c>
+      <c r="D168" s="1">
+        <v>0.625</v>
       </c>
       <c r="E168" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
@@ -4948,16 +4382,16 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>345</v>
-      </c>
-      <c r="D169" t="s">
-        <v>346</v>
+        <v>178</v>
+      </c>
+      <c r="D169" s="1">
+        <v>0.625</v>
       </c>
       <c r="E169" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
@@ -4968,16 +4402,16 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>347</v>
-      </c>
-      <c r="D170" t="s">
-        <v>348</v>
+        <v>179</v>
+      </c>
+      <c r="D170" s="1">
+        <v>0.625</v>
       </c>
       <c r="E170" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
@@ -4988,16 +4422,16 @@
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>349</v>
-      </c>
-      <c r="D171" t="s">
-        <v>350</v>
+        <v>180</v>
+      </c>
+      <c r="D171" s="1">
+        <v>0.625</v>
       </c>
       <c r="E171" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
@@ -5008,16 +4442,16 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>351</v>
-      </c>
-      <c r="D172" t="s">
-        <v>352</v>
+        <v>181</v>
+      </c>
+      <c r="D172" s="1">
+        <v>0.625</v>
       </c>
       <c r="E172" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
@@ -5028,16 +4462,16 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>353</v>
-      </c>
-      <c r="D173" t="s">
-        <v>354</v>
+        <v>182</v>
+      </c>
+      <c r="D173" s="1">
+        <v>0.625</v>
       </c>
       <c r="E173" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
@@ -5048,16 +4482,16 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>355</v>
-      </c>
-      <c r="D174" t="s">
-        <v>356</v>
+        <v>183</v>
+      </c>
+      <c r="D174" s="1">
+        <v>0.625</v>
       </c>
       <c r="E174" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
@@ -5068,16 +4502,16 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>357</v>
-      </c>
-      <c r="D175" t="s">
-        <v>358</v>
+        <v>184</v>
+      </c>
+      <c r="D175" s="1">
+        <v>0.625</v>
       </c>
       <c r="E175" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
@@ -5088,16 +4522,16 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>359</v>
-      </c>
-      <c r="D176" t="s">
-        <v>360</v>
+        <v>185</v>
+      </c>
+      <c r="D176" s="1">
+        <v>0.625</v>
       </c>
       <c r="E176" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
@@ -5108,16 +4542,16 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>361</v>
-      </c>
-      <c r="D177" t="s">
-        <v>362</v>
+        <v>186</v>
+      </c>
+      <c r="D177" s="1">
+        <v>0.625</v>
       </c>
       <c r="E177" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F177" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
@@ -5128,16 +4562,16 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>363</v>
-      </c>
-      <c r="D178" t="s">
-        <v>364</v>
+        <v>187</v>
+      </c>
+      <c r="D178" s="1">
+        <v>0.625</v>
       </c>
       <c r="E178" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F178" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
@@ -5148,16 +4582,16 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>365</v>
-      </c>
-      <c r="D179" t="s">
-        <v>366</v>
+        <v>188</v>
+      </c>
+      <c r="D179" s="1">
+        <v>0.625</v>
       </c>
       <c r="E179" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
@@ -5168,16 +4602,16 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>367</v>
-      </c>
-      <c r="D180" t="s">
-        <v>368</v>
+        <v>189</v>
+      </c>
+      <c r="D180" s="1">
+        <v>0.625</v>
       </c>
       <c r="E180" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
@@ -5188,16 +4622,16 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>369</v>
-      </c>
-      <c r="D181" t="s">
-        <v>370</v>
+        <v>190</v>
+      </c>
+      <c r="D181" s="1">
+        <v>0.625</v>
       </c>
       <c r="E181" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F181" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
@@ -5208,16 +4642,16 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>371</v>
-      </c>
-      <c r="D182" t="s">
-        <v>372</v>
+        <v>191</v>
+      </c>
+      <c r="D182" s="1">
+        <v>0.625</v>
       </c>
       <c r="E182" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
@@ -5228,16 +4662,16 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>373</v>
-      </c>
-      <c r="D183" t="s">
-        <v>374</v>
+        <v>192</v>
+      </c>
+      <c r="D183" s="1">
+        <v>0.625</v>
       </c>
       <c r="E183" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
@@ -5248,16 +4682,16 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>375</v>
-      </c>
-      <c r="D184" t="s">
-        <v>376</v>
+        <v>193</v>
+      </c>
+      <c r="D184" s="1">
+        <v>0.625</v>
       </c>
       <c r="E184" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
@@ -5268,16 +4702,16 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>377</v>
-      </c>
-      <c r="D185" t="s">
-        <v>378</v>
+        <v>194</v>
+      </c>
+      <c r="D185" s="1">
+        <v>0.625</v>
       </c>
       <c r="E185" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
@@ -5288,16 +4722,16 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>379</v>
-      </c>
-      <c r="D186" t="s">
-        <v>380</v>
+        <v>195</v>
+      </c>
+      <c r="D186" s="1">
+        <v>0.625</v>
       </c>
       <c r="E186" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
@@ -5308,16 +4742,16 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>381</v>
-      </c>
-      <c r="D187" t="s">
-        <v>382</v>
+        <v>196</v>
+      </c>
+      <c r="D187" s="1">
+        <v>0.625</v>
       </c>
       <c r="E187" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
@@ -5328,16 +4762,16 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>383</v>
-      </c>
-      <c r="D188" t="s">
-        <v>384</v>
+        <v>197</v>
+      </c>
+      <c r="D188" s="1">
+        <v>0.625</v>
       </c>
       <c r="E188" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
@@ -5348,16 +4782,16 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>385</v>
-      </c>
-      <c r="D189" t="s">
-        <v>386</v>
+        <v>198</v>
+      </c>
+      <c r="D189" s="1">
+        <v>0.625</v>
       </c>
       <c r="E189" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
@@ -5368,16 +4802,16 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>387</v>
-      </c>
-      <c r="D190" t="s">
-        <v>388</v>
+        <v>199</v>
+      </c>
+      <c r="D190" s="1">
+        <v>0.625</v>
       </c>
       <c r="E190" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
@@ -5390,21 +4824,21 @@
       <c r="C191" t="s">
         <v>8</v>
       </c>
-      <c r="D191" t="s">
-        <v>65</v>
+      <c r="D191" s="1">
+        <v>0.625</v>
       </c>
       <c r="E191" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F29" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F1 A5:C29 A2:C4 E2:F4 E5:F29" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>